--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama2-Dag1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama2-Dag1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lama2</t>
   </si>
   <si>
     <t>Dag1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H2">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I2">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J2">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.84555366666666</v>
+        <v>20.950428</v>
       </c>
       <c r="N2">
-        <v>62.536661</v>
+        <v>62.851284</v>
       </c>
       <c r="O2">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="P2">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="Q2">
-        <v>70.27407191888599</v>
+        <v>71.51359461387599</v>
       </c>
       <c r="R2">
-        <v>632.4666472699739</v>
+        <v>643.622351524884</v>
       </c>
       <c r="S2">
-        <v>0.006237379388841181</v>
+        <v>0.004994708024297839</v>
       </c>
       <c r="T2">
-        <v>0.006237379388841181</v>
+        <v>0.004994708024297839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H3">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I3">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J3">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>87.17184899999999</v>
       </c>
       <c r="O3">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="P3">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="Q3">
-        <v>97.95727318937399</v>
+        <v>99.186076630161</v>
       </c>
       <c r="R3">
-        <v>881.6154587043659</v>
+        <v>892.674689671449</v>
       </c>
       <c r="S3">
-        <v>0.008694482333167351</v>
+        <v>0.006927431008301749</v>
       </c>
       <c r="T3">
-        <v>0.008694482333167351</v>
+        <v>0.006927431008301749</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H4">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I4">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J4">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.459812</v>
+        <v>4.814181666666666</v>
       </c>
       <c r="N4">
-        <v>22.379436</v>
+        <v>14.442545</v>
       </c>
       <c r="O4">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="P4">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="Q4">
-        <v>25.148354098536</v>
+        <v>16.43305025117167</v>
       </c>
       <c r="R4">
-        <v>226.335186886824</v>
+        <v>147.897452260545</v>
       </c>
       <c r="S4">
-        <v>0.002232115220227226</v>
+        <v>0.00114772986026479</v>
       </c>
       <c r="T4">
-        <v>0.002232115220227226</v>
+        <v>0.00114772986026479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H5">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I5">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J5">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>71.92949600000001</v>
+        <v>95.02938066666667</v>
       </c>
       <c r="N5">
-        <v>215.788488</v>
+        <v>285.088142</v>
       </c>
       <c r="O5">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="P5">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="Q5">
-        <v>242.487134466288</v>
+        <v>324.3796549361047</v>
       </c>
       <c r="R5">
-        <v>2182.384210196592</v>
+        <v>2919.416894424942</v>
       </c>
       <c r="S5">
-        <v>0.02152265000845509</v>
+        <v>0.0226555758268926</v>
       </c>
       <c r="T5">
-        <v>0.02152265000845509</v>
+        <v>0.0226555758268926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H6">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I6">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J6">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.099893666666667</v>
+        <v>6.880268666666666</v>
       </c>
       <c r="N6">
-        <v>21.299681</v>
+        <v>20.640806</v>
       </c>
       <c r="O6">
-        <v>0.05205504480631769</v>
+        <v>0.04389843026406686</v>
       </c>
       <c r="P6">
-        <v>0.05205504480631769</v>
+        <v>0.04389843026406686</v>
       </c>
       <c r="Q6">
-        <v>23.935005331406</v>
+        <v>23.48557004480067</v>
       </c>
       <c r="R6">
-        <v>215.415047982654</v>
+        <v>211.370130403206</v>
       </c>
       <c r="S6">
-        <v>0.0021244209258037</v>
+        <v>0.001640297425843758</v>
       </c>
       <c r="T6">
-        <v>0.0021244209258037</v>
+        <v>0.001640297425843758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>177.833096</v>
       </c>
       <c r="I7">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J7">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.84555366666666</v>
+        <v>20.950428</v>
       </c>
       <c r="N7">
-        <v>62.536661</v>
+        <v>62.851284</v>
       </c>
       <c r="O7">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="P7">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="Q7">
-        <v>1235.676448792495</v>
+        <v>1241.893157921696</v>
       </c>
       <c r="R7">
-        <v>11121.08803913245</v>
+        <v>11177.03842129526</v>
       </c>
       <c r="S7">
-        <v>0.10967605266806</v>
+        <v>0.0867372665950218</v>
       </c>
       <c r="T7">
-        <v>0.10967605266806</v>
+        <v>0.0867372665950218</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>177.833096</v>
       </c>
       <c r="I8">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J8">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>87.17184899999999</v>
       </c>
       <c r="O8">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="P8">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="Q8">
         <v>1722.448865746056</v>
@@ -948,10 +948,10 @@
         <v>15502.0397917145</v>
       </c>
       <c r="S8">
-        <v>0.152880952535924</v>
+        <v>0.1203006116198674</v>
       </c>
       <c r="T8">
-        <v>0.152880952535924</v>
+        <v>0.1203006116198674</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>177.833096</v>
       </c>
       <c r="I9">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J9">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.459812</v>
+        <v>4.814181666666666</v>
       </c>
       <c r="N9">
-        <v>22.379436</v>
+        <v>14.442545</v>
       </c>
       <c r="O9">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="P9">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="Q9">
-        <v>442.200487845984</v>
+        <v>285.3736101632577</v>
       </c>
       <c r="R9">
-        <v>3979.804390613856</v>
+        <v>2568.36249146932</v>
       </c>
       <c r="S9">
-        <v>0.03924878882512575</v>
+        <v>0.01993128534932714</v>
       </c>
       <c r="T9">
-        <v>0.03924878882512575</v>
+        <v>0.01993128534932714</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>177.833096</v>
       </c>
       <c r="I10">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J10">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>71.92949600000001</v>
+        <v>95.02938066666667</v>
       </c>
       <c r="N10">
-        <v>215.788488</v>
+        <v>285.088142</v>
       </c>
       <c r="O10">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="P10">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="Q10">
-        <v>4263.814989133206</v>
+        <v>5633.122991638626</v>
       </c>
       <c r="R10">
-        <v>38374.33490219885</v>
+        <v>50698.10692474763</v>
       </c>
       <c r="S10">
-        <v>0.3784472851060761</v>
+        <v>0.3934329515962384</v>
       </c>
       <c r="T10">
-        <v>0.3784472851060761</v>
+        <v>0.3934329515962384</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>177.833096</v>
       </c>
       <c r="I11">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J11">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.099893666666667</v>
+        <v>6.880268666666666</v>
       </c>
       <c r="N11">
-        <v>21.299681</v>
+        <v>20.640806</v>
       </c>
       <c r="O11">
-        <v>0.05205504480631769</v>
+        <v>0.04389843026406686</v>
       </c>
       <c r="P11">
-        <v>0.05205504480631769</v>
+        <v>0.04389843026406686</v>
       </c>
       <c r="Q11">
-        <v>420.8653573380417</v>
+        <v>407.846492768375</v>
       </c>
       <c r="R11">
-        <v>3787.788216042376</v>
+        <v>3670.618434915375</v>
       </c>
       <c r="S11">
-        <v>0.03735512734152653</v>
+        <v>0.02848513154891355</v>
       </c>
       <c r="T11">
-        <v>0.03735512734152653</v>
+        <v>0.02848513154891355</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H12">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I12">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J12">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.84555366666666</v>
+        <v>20.950428</v>
       </c>
       <c r="N12">
-        <v>62.536661</v>
+        <v>62.851284</v>
       </c>
       <c r="O12">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="P12">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="Q12">
-        <v>0.2965418979441111</v>
+        <v>1.350799795728</v>
       </c>
       <c r="R12">
-        <v>2.668877081497</v>
+        <v>12.157198161552</v>
       </c>
       <c r="S12">
-        <v>2.632043756194176E-05</v>
+        <v>9.43436085875819E-05</v>
       </c>
       <c r="T12">
-        <v>2.632043756194176E-05</v>
+        <v>9.43436085875819E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H13">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I13">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J13">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>87.17184899999999</v>
       </c>
       <c r="O13">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="P13">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="Q13">
-        <v>0.4133592221969999</v>
+        <v>1.873497378708</v>
       </c>
       <c r="R13">
-        <v>3.720232999773</v>
+        <v>16.861476408372</v>
       </c>
       <c r="S13">
-        <v>3.668889851288215E-05</v>
+        <v>0.0001308502591913921</v>
       </c>
       <c r="T13">
-        <v>3.668889851288215E-05</v>
+        <v>0.0001308502591913921</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H14">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I14">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J14">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.459812</v>
+        <v>4.814181666666666</v>
       </c>
       <c r="N14">
-        <v>22.379436</v>
+        <v>14.442545</v>
       </c>
       <c r="O14">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="P14">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="Q14">
-        <v>0.106120798908</v>
+        <v>0.3103991771399999</v>
       </c>
       <c r="R14">
-        <v>0.9550871901720001</v>
+        <v>2.79359259426</v>
       </c>
       <c r="S14">
-        <v>9.419059772146641E-06</v>
+        <v>2.167914043710767E-05</v>
       </c>
       <c r="T14">
-        <v>9.419059772146641E-06</v>
+        <v>2.167914043710767E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H15">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I15">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J15">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>71.92949600000001</v>
+        <v>95.02938066666667</v>
       </c>
       <c r="N15">
-        <v>215.788488</v>
+        <v>285.088142</v>
       </c>
       <c r="O15">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="P15">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="Q15">
-        <v>1.023245033597334</v>
+        <v>6.127114347864</v>
       </c>
       <c r="R15">
-        <v>9.209205302376001</v>
+        <v>55.144029130776</v>
       </c>
       <c r="S15">
-        <v>9.082108533088807E-05</v>
+        <v>0.0004279346796130525</v>
       </c>
       <c r="T15">
-        <v>9.082108533088807E-05</v>
+        <v>0.0004279346796130525</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H16">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I16">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J16">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.099893666666667</v>
+        <v>6.880268666666666</v>
       </c>
       <c r="N16">
-        <v>21.299681</v>
+        <v>20.640806</v>
       </c>
       <c r="O16">
-        <v>0.05205504480631769</v>
+        <v>0.04389843026406686</v>
       </c>
       <c r="P16">
-        <v>0.05205504480631769</v>
+        <v>0.04389843026406686</v>
       </c>
       <c r="Q16">
-        <v>0.1010007206707778</v>
+        <v>0.4436122025519999</v>
       </c>
       <c r="R16">
-        <v>0.909006486037</v>
+        <v>3.992509822967999</v>
       </c>
       <c r="S16">
-        <v>8.964612355139609E-06</v>
+        <v>3.098310803318214E-05</v>
       </c>
       <c r="T16">
-        <v>8.964612355139609E-06</v>
+        <v>3.098310803318214E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H17">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I17">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J17">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.84555366666666</v>
+        <v>20.950428</v>
       </c>
       <c r="N17">
-        <v>62.536661</v>
+        <v>62.851284</v>
       </c>
       <c r="O17">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="P17">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="Q17">
-        <v>415.6903924532027</v>
+        <v>598.0597308347119</v>
       </c>
       <c r="R17">
-        <v>3741.213532078825</v>
+        <v>5382.537577512408</v>
       </c>
       <c r="S17">
-        <v>0.03689580830067276</v>
+        <v>0.0417701522729769</v>
       </c>
       <c r="T17">
-        <v>0.03689580830067276</v>
+        <v>0.04177015227297691</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H18">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I18">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J18">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>87.17184899999999</v>
       </c>
       <c r="O18">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="P18">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="Q18">
-        <v>579.4441139363249</v>
+        <v>829.4814239483819</v>
       </c>
       <c r="R18">
-        <v>5214.997025426925</v>
+        <v>7465.332815535437</v>
       </c>
       <c r="S18">
-        <v>0.05143024553100448</v>
+        <v>0.05793328592375217</v>
       </c>
       <c r="T18">
-        <v>0.05143024553100448</v>
+        <v>0.05793328592375217</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H19">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I19">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J19">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.459812</v>
+        <v>4.814181666666666</v>
       </c>
       <c r="N19">
-        <v>22.379436</v>
+        <v>14.442545</v>
       </c>
       <c r="O19">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="P19">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="Q19">
-        <v>148.7594058423</v>
+        <v>137.4276550224211</v>
       </c>
       <c r="R19">
-        <v>1338.8346525807</v>
+        <v>1236.84889520179</v>
       </c>
       <c r="S19">
-        <v>0.01320357318938366</v>
+        <v>0.009598329031103347</v>
       </c>
       <c r="T19">
-        <v>0.01320357318938366</v>
+        <v>0.009598329031103348</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H20">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I20">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J20">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>71.92949600000001</v>
+        <v>95.02938066666667</v>
       </c>
       <c r="N20">
-        <v>215.788488</v>
+        <v>285.088142</v>
       </c>
       <c r="O20">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="P20">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="Q20">
-        <v>1434.377848596734</v>
+        <v>2712.748676203467</v>
       </c>
       <c r="R20">
-        <v>12909.4006373706</v>
+        <v>24414.73808583121</v>
       </c>
       <c r="S20">
-        <v>0.1273123726055669</v>
+        <v>0.1894659002123181</v>
       </c>
       <c r="T20">
-        <v>0.1273123726055669</v>
+        <v>0.1894659002123181</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H21">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I21">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J21">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.099893666666667</v>
+        <v>6.880268666666666</v>
       </c>
       <c r="N21">
-        <v>21.299681</v>
+        <v>20.640806</v>
       </c>
       <c r="O21">
-        <v>0.05205504480631769</v>
+        <v>0.04389843026406686</v>
       </c>
       <c r="P21">
-        <v>0.05205504480631769</v>
+        <v>0.04389843026406686</v>
       </c>
       <c r="Q21">
-        <v>141.5821153933694</v>
+        <v>196.4070436583524</v>
       </c>
       <c r="R21">
-        <v>1274.239038540325</v>
+        <v>1767.663392925172</v>
       </c>
       <c r="S21">
-        <v>0.01256653192663231</v>
+        <v>0.01371761330535388</v>
       </c>
       <c r="T21">
-        <v>0.01256653192663231</v>
+        <v>0.01371761330535388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.15236</v>
+      </c>
+      <c r="I22">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J22">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>20.950428</v>
+      </c>
+      <c r="N22">
+        <v>62.851284</v>
+      </c>
+      <c r="O22">
+        <v>0.1336707833832197</v>
+      </c>
+      <c r="P22">
+        <v>0.1336707833832197</v>
+      </c>
+      <c r="Q22">
+        <v>1.06400240336</v>
+      </c>
+      <c r="R22">
+        <v>9.57602163024</v>
+      </c>
+      <c r="S22">
+        <v>7.431288233556662E-05</v>
+      </c>
+      <c r="T22">
+        <v>7.431288233556662E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.15236</v>
+      </c>
+      <c r="I23">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J23">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>29.057283</v>
+      </c>
+      <c r="N23">
+        <v>87.17184899999999</v>
+      </c>
+      <c r="O23">
+        <v>0.1853952473714576</v>
+      </c>
+      <c r="P23">
+        <v>0.1853952473714576</v>
+      </c>
+      <c r="Q23">
+        <v>1.47572254596</v>
+      </c>
+      <c r="R23">
+        <v>13.28150291364</v>
+      </c>
+      <c r="S23">
+        <v>0.0001030685603449371</v>
+      </c>
+      <c r="T23">
+        <v>0.0001030685603449371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.15236</v>
+      </c>
+      <c r="I24">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J24">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.814181666666666</v>
+      </c>
+      <c r="N24">
+        <v>14.442545</v>
+      </c>
+      <c r="O24">
+        <v>0.03071609967741316</v>
+      </c>
+      <c r="P24">
+        <v>0.03071609967741316</v>
+      </c>
+      <c r="Q24">
+        <v>0.2444962395777778</v>
+      </c>
+      <c r="R24">
+        <v>2.2004661562</v>
+      </c>
+      <c r="S24">
+        <v>1.707629628077488E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.707629628077488E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.15236</v>
+      </c>
+      <c r="I25">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J25">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>95.02938066666667</v>
+      </c>
+      <c r="N25">
+        <v>285.088142</v>
+      </c>
+      <c r="O25">
+        <v>0.6063194393038427</v>
+      </c>
+      <c r="P25">
+        <v>0.6063194393038427</v>
+      </c>
+      <c r="Q25">
+        <v>4.826225479457778</v>
+      </c>
+      <c r="R25">
+        <v>43.43602931512</v>
+      </c>
+      <c r="S25">
+        <v>0.0003370769887805523</v>
+      </c>
+      <c r="T25">
+        <v>0.0003370769887805523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.15236</v>
+      </c>
+      <c r="I26">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J26">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.880268666666666</v>
+      </c>
+      <c r="N26">
+        <v>20.640806</v>
+      </c>
+      <c r="O26">
+        <v>0.04389843026406686</v>
+      </c>
+      <c r="P26">
+        <v>0.04389843026406686</v>
+      </c>
+      <c r="Q26">
+        <v>0.3494259113511111</v>
+      </c>
+      <c r="R26">
+        <v>3.14483320216</v>
+      </c>
+      <c r="S26">
+        <v>2.440487592249122E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.440487592249122E-05</v>
       </c>
     </row>
   </sheetData>
